--- a/Documentacion/Documentos/USUARIOS.xlsx
+++ b/Documentacion/Documentos/USUARIOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\Proyecto_final\Documentacion\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2D34C3-FD31-4B16-99E5-D229E48572E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2750BE27-A0DC-455F-B68A-1C12D462A5FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5F1F8D12-7DB8-45DA-AD94-FB44E3E0A237}"/>
   </bookViews>
